--- a/state_results/Rivers/OruakeretakiatSH2Napier_e2168a7be4.xlsx
+++ b/state_results/Rivers/OruakeretakiatSH2Napier_e2168a7be4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U243"/>
+  <dimension ref="A1:U264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,13 +570,13 @@
         <v>2.95</v>
       </c>
       <c r="G2" t="n">
-        <v>3.22561358723559</v>
+        <v>3.19866556778776</v>
       </c>
       <c r="H2" t="n">
-        <v>7.61382155318983</v>
+        <v>7.64137665442791</v>
       </c>
       <c r="I2" t="n">
-        <v>6.71992</v>
+        <v>7.10303</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>3.3</v>
       </c>
       <c r="M2" t="n">
-        <v>6.1</v>
+        <v>6.036</v>
       </c>
       <c r="N2" t="n">
-        <v>6.53884</v>
+        <v>6.75546</v>
       </c>
       <c r="O2" t="n">
         <v>1857900</v>
@@ -1153,7 +1153,7 @@
         <v>0.00538</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0079331311743236</v>
+        <v>0.0079433885244684</v>
       </c>
       <c r="H9" t="n">
         <v>0.0487082706390732</v>
@@ -1164,7 +1164,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00594</v>
+        <v>0.00602</v>
       </c>
       <c r="M9" t="n">
         <v>0.01266</v>
@@ -1234,7 +1234,7 @@
         <v>0.00538</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0079331311743236</v>
+        <v>0.0079433885244684</v>
       </c>
       <c r="H10" t="n">
         <v>0.0487082706390732</v>
@@ -1245,7 +1245,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00594</v>
+        <v>0.00602</v>
       </c>
       <c r="M10" t="n">
         <v>0.01266</v>
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9385</v>
+        <v>0.93875</v>
       </c>
       <c r="G13" t="n">
-        <v>1.08552173913043</v>
+        <v>1.08548913043478</v>
       </c>
       <c r="H13" t="n">
         <v>2.76</v>
@@ -1484,7 +1484,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.5135</v>
+        <v>0.51375</v>
       </c>
       <c r="M13" t="n">
         <v>1.59816</v>
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9385</v>
+        <v>0.93875</v>
       </c>
       <c r="G14" t="n">
-        <v>1.08552173913043</v>
+        <v>1.08548913043478</v>
       </c>
       <c r="H14" t="n">
         <v>2.76</v>
@@ -1561,7 +1561,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.5135</v>
+        <v>0.51375</v>
       </c>
       <c r="M14" t="n">
         <v>1.59816</v>
@@ -1939,24 +1939,24 @@
         <v>2.25</v>
       </c>
       <c r="G19" t="n">
-        <v>3.12279153062237</v>
+        <v>3.09784408210823</v>
       </c>
       <c r="H19" t="n">
-        <v>7.61382155318983</v>
+        <v>7.64137665442791</v>
       </c>
       <c r="I19" t="n">
-        <v>6.58953</v>
+        <v>7.10303</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>2.92526</v>
+        <v>2.96874</v>
       </c>
       <c r="M19" t="n">
-        <v>6.036</v>
+        <v>6</v>
       </c>
       <c r="N19" t="n">
-        <v>6.50162</v>
+        <v>6.54906</v>
       </c>
       <c r="O19" t="n">
         <v>1857900</v>
@@ -2522,7 +2522,7 @@
         <v>0.0061</v>
       </c>
       <c r="G26" t="n">
-        <v>0.009248790831195</v>
+        <v>0.0092555632313583</v>
       </c>
       <c r="H26" t="n">
         <v>0.0347950055032435</v>
@@ -2603,7 +2603,7 @@
         <v>0.0061</v>
       </c>
       <c r="G27" t="n">
-        <v>0.009248790831195</v>
+        <v>0.0092555632313583</v>
       </c>
       <c r="H27" t="n">
         <v>0.0347950055032435</v>
@@ -2842,7 +2842,7 @@
         <v>0.9275</v>
       </c>
       <c r="G30" t="n">
-        <v>1.04265217391304</v>
+        <v>1.04264130434783</v>
       </c>
       <c r="H30" t="n">
         <v>2.473</v>
@@ -2853,7 +2853,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.5135</v>
+        <v>0.51375</v>
       </c>
       <c r="M30" t="n">
         <v>1.64172</v>
@@ -2919,7 +2919,7 @@
         <v>0.9275</v>
       </c>
       <c r="G31" t="n">
-        <v>1.04265217391304</v>
+        <v>1.04264130434783</v>
       </c>
       <c r="H31" t="n">
         <v>2.473</v>
@@ -2930,7 +2930,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.5135</v>
+        <v>0.51375</v>
       </c>
       <c r="M31" t="n">
         <v>1.64172</v>
@@ -3389,24 +3389,24 @@
         <v>2.135</v>
       </c>
       <c r="G37" t="n">
-        <v>2.96902304233591</v>
+        <v>2.94961947126937</v>
       </c>
       <c r="H37" t="n">
-        <v>7.61382155318983</v>
+        <v>7.64137665442791</v>
       </c>
       <c r="I37" t="n">
-        <v>6.50923</v>
+        <v>6.78033</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>3.04026</v>
+        <v>3.08374</v>
       </c>
       <c r="M37" t="n">
-        <v>5.90251</v>
+        <v>5.256</v>
       </c>
       <c r="N37" t="n">
-        <v>6.30131</v>
+        <v>6.172</v>
       </c>
       <c r="O37" t="n">
         <v>1857900</v>
@@ -4046,10 +4046,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.00563</v>
+        <v>0.00572</v>
       </c>
       <c r="G45" t="n">
-        <v>0.007985642579411799</v>
+        <v>0.0079910137933344</v>
       </c>
       <c r="H45" t="n">
         <v>0.0347950055032435</v>
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.00563</v>
+        <v>0.00572</v>
       </c>
       <c r="G46" t="n">
-        <v>0.007985642579411799</v>
+        <v>0.0079910137933344</v>
       </c>
       <c r="H46" t="n">
         <v>0.0347950055032435</v>
@@ -4369,7 +4369,7 @@
         <v>0.879</v>
       </c>
       <c r="G49" t="n">
-        <v>0.989620689655172</v>
+        <v>0.9896</v>
       </c>
       <c r="H49" t="n">
         <v>2.473</v>
@@ -4380,7 +4380,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.482</v>
+        <v>0.48175</v>
       </c>
       <c r="M49" t="n">
         <v>1.54788</v>
@@ -4446,7 +4446,7 @@
         <v>0.879</v>
       </c>
       <c r="G50" t="n">
-        <v>0.989620689655172</v>
+        <v>0.9896</v>
       </c>
       <c r="H50" t="n">
         <v>2.473</v>
@@ -4457,7 +4457,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0.482</v>
+        <v>0.48175</v>
       </c>
       <c r="M50" t="n">
         <v>1.54788</v>
@@ -4993,13 +4993,13 @@
         <v>1.94</v>
       </c>
       <c r="G57" t="n">
-        <v>2.56568970900258</v>
+        <v>2.54628613793603</v>
       </c>
       <c r="H57" t="n">
-        <v>7.61382155318983</v>
+        <v>7.64137665442791</v>
       </c>
       <c r="I57" t="n">
-        <v>6.46077</v>
+        <v>6.48033</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -5010,7 +5010,7 @@
         <v>3.824</v>
       </c>
       <c r="N57" t="n">
-        <v>5.92883</v>
+        <v>4.96114</v>
       </c>
       <c r="O57" t="n">
         <v>1857900</v>
@@ -5653,7 +5653,7 @@
         <v>0.00467</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0067288129150456</v>
+        <v>0.0067307927563946</v>
       </c>
       <c r="H65" t="n">
         <v>0.0347950055032435</v>
@@ -5664,7 +5664,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.00371</v>
+        <v>0.00372</v>
       </c>
       <c r="M65" t="n">
         <v>0.01202</v>
@@ -5734,7 +5734,7 @@
         <v>0.00467</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0067288129150456</v>
+        <v>0.0067307927563946</v>
       </c>
       <c r="H66" t="n">
         <v>0.0347950055032435</v>
@@ -5745,7 +5745,7 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>0.00371</v>
+        <v>0.00372</v>
       </c>
       <c r="M66" t="n">
         <v>0.01202</v>
@@ -6067,7 +6067,7 @@
         <v>1.53376</v>
       </c>
       <c r="N70" t="n">
-        <v>1.82912</v>
+        <v>1.82909</v>
       </c>
       <c r="O70" t="n">
         <v>1857900</v>
@@ -6144,7 +6144,7 @@
         <v>1.53376</v>
       </c>
       <c r="N71" t="n">
-        <v>1.82912</v>
+        <v>1.82909</v>
       </c>
       <c r="O71" t="n">
         <v>1857900</v>
@@ -6674,10 +6674,10 @@
         <v>1.88</v>
       </c>
       <c r="G78" t="n">
-        <v>2.18686645496824</v>
+        <v>2.17078328210406</v>
       </c>
       <c r="H78" t="n">
-        <v>5.85663504868591</v>
+        <v>4.9</v>
       </c>
       <c r="I78" t="n">
         <v>4.435</v>
@@ -7334,7 +7334,7 @@
         <v>0.00308</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0055008020907248</v>
+        <v>0.005506000469703</v>
       </c>
       <c r="H86" t="n">
         <v>0.0347950055032435</v>
@@ -7345,7 +7345,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.00065</v>
       </c>
       <c r="M86" t="n">
         <v>0.0078</v>
@@ -7415,7 +7415,7 @@
         <v>0.00308</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0055008020907248</v>
+        <v>0.005506000469703</v>
       </c>
       <c r="H87" t="n">
         <v>0.0347950055032435</v>
@@ -7426,7 +7426,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.00065</v>
       </c>
       <c r="M87" t="n">
         <v>0.0078</v>
@@ -7728,10 +7728,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.991</v>
+        <v>0.9913</v>
       </c>
       <c r="G91" t="n">
-        <v>1.01891525423729</v>
+        <v>1.01893220338983</v>
       </c>
       <c r="H91" t="n">
         <v>2.226</v>
@@ -7745,7 +7745,7 @@
         <v>0.398</v>
       </c>
       <c r="M91" t="n">
-        <v>1.70979</v>
+        <v>1.7097</v>
       </c>
       <c r="N91" t="n">
         <v>1.89894</v>
@@ -7805,10 +7805,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.991</v>
+        <v>0.9913</v>
       </c>
       <c r="G92" t="n">
-        <v>1.01891525423729</v>
+        <v>1.01893220338983</v>
       </c>
       <c r="H92" t="n">
         <v>2.226</v>
@@ -7822,7 +7822,7 @@
         <v>0.398</v>
       </c>
       <c r="M92" t="n">
-        <v>1.70979</v>
+        <v>1.7097</v>
       </c>
       <c r="N92" t="n">
         <v>1.89894</v>
@@ -8355,7 +8355,7 @@
         <v>1.94</v>
       </c>
       <c r="G99" t="n">
-        <v>2.10176350210447</v>
+        <v>2.10328915504002</v>
       </c>
       <c r="H99" t="n">
         <v>4.9</v>
@@ -8436,7 +8436,7 @@
         <v>0.013</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0134322524065463</v>
+        <v>0.0134332626453414</v>
       </c>
       <c r="H100" t="n">
         <v>0.024</v>
@@ -8517,7 +8517,7 @@
         <v>0.013</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0134322524065463</v>
+        <v>0.0134332626453414</v>
       </c>
       <c r="H101" t="n">
         <v>0.024</v>
@@ -9012,10 +9012,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.00109</v>
+        <v>0.00114</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0040968706232101</v>
+        <v>0.0041136340495473</v>
       </c>
       <c r="H107" t="n">
         <v>0.0331350748000098</v>
@@ -9026,7 +9026,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.00065</v>
       </c>
       <c r="M107" t="n">
         <v>0.00663</v>
@@ -9093,10 +9093,10 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.00109</v>
+        <v>0.00114</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0040968706232101</v>
+        <v>0.0041136340495473</v>
       </c>
       <c r="H108" t="n">
         <v>0.0331350748000098</v>
@@ -9107,7 +9107,7 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.00065</v>
       </c>
       <c r="M108" t="n">
         <v>0.00663</v>
@@ -9409,10 +9409,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.0075</v>
+        <v>1.00765</v>
       </c>
       <c r="G112" t="n">
-        <v>1.03075</v>
+        <v>1.03076666666667</v>
       </c>
       <c r="H112" t="n">
         <v>2.525</v>
@@ -9426,7 +9426,7 @@
         <v>0.405</v>
       </c>
       <c r="M112" t="n">
-        <v>1.7509</v>
+        <v>1.75064</v>
       </c>
       <c r="N112" t="n">
         <v>1.8931</v>
@@ -9486,10 +9486,10 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1.0075</v>
+        <v>1.00765</v>
       </c>
       <c r="G113" t="n">
-        <v>1.03075</v>
+        <v>1.03076666666667</v>
       </c>
       <c r="H113" t="n">
         <v>2.525</v>
@@ -9503,7 +9503,7 @@
         <v>0.405</v>
       </c>
       <c r="M113" t="n">
-        <v>1.7509</v>
+        <v>1.75064</v>
       </c>
       <c r="N113" t="n">
         <v>1.8931</v>
@@ -10117,7 +10117,7 @@
         <v>0.015</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0144155857398796</v>
+        <v>0.0144165959786747</v>
       </c>
       <c r="H121" t="n">
         <v>0.026</v>
@@ -10198,7 +10198,7 @@
         <v>0.015</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0144155857398796</v>
+        <v>0.0144165959786747</v>
       </c>
       <c r="H122" t="n">
         <v>0.026</v>
@@ -10693,10 +10693,10 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.00109</v>
+        <v>0.00114</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0022802850149154</v>
+        <v>0.0023128427345714</v>
       </c>
       <c r="H128" t="n">
         <v>0.015301771412392</v>
@@ -10707,7 +10707,7 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.00065</v>
       </c>
       <c r="M128" t="n">
         <v>0.00481</v>
@@ -10774,10 +10774,10 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.00109</v>
+        <v>0.00114</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0022802850149154</v>
+        <v>0.0023128427345714</v>
       </c>
       <c r="H129" t="n">
         <v>0.015301771412392</v>
@@ -10788,7 +10788,7 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.00065</v>
       </c>
       <c r="M129" t="n">
         <v>0.00481</v>
@@ -11090,10 +11090,10 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1.0755</v>
+        <v>1.0757</v>
       </c>
       <c r="G133" t="n">
-        <v>1.06421666666667</v>
+        <v>1.06423333333333</v>
       </c>
       <c r="H133" t="n">
         <v>2.525</v>
@@ -11107,7 +11107,7 @@
         <v>0.435</v>
       </c>
       <c r="M133" t="n">
-        <v>1.7509</v>
+        <v>1.75064</v>
       </c>
       <c r="N133" t="n">
         <v>1.8865</v>
@@ -11167,10 +11167,10 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1.0755</v>
+        <v>1.0757</v>
       </c>
       <c r="G134" t="n">
-        <v>1.06421666666667</v>
+        <v>1.06423333333333</v>
       </c>
       <c r="H134" t="n">
         <v>2.525</v>
@@ -11184,7 +11184,7 @@
         <v>0.435</v>
       </c>
       <c r="M134" t="n">
-        <v>1.7509</v>
+        <v>1.75064</v>
       </c>
       <c r="N134" t="n">
         <v>1.8865</v>
@@ -11798,7 +11798,7 @@
         <v>0.0155</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0154655857398796</v>
+        <v>0.0154665959786747</v>
       </c>
       <c r="H142" t="n">
         <v>0.026</v>
@@ -11879,7 +11879,7 @@
         <v>0.0155</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0154655857398796</v>
+        <v>0.0154665959786747</v>
       </c>
       <c r="H143" t="n">
         <v>0.026</v>
@@ -12374,10 +12374,10 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0.00165</v>
+        <v>0.00173</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0024198360573979</v>
+        <v>0.002466195277422</v>
       </c>
       <c r="H149" t="n">
         <v>0.0104666068233096</v>
@@ -12388,7 +12388,7 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
-        <v>0.00136</v>
+        <v>0.00144</v>
       </c>
       <c r="M149" t="n">
         <v>0.00481</v>
@@ -12455,10 +12455,10 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0.00165</v>
+        <v>0.00173</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0024198360573979</v>
+        <v>0.002466195277422</v>
       </c>
       <c r="H150" t="n">
         <v>0.0104666068233096</v>
@@ -12469,7 +12469,7 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>0.00136</v>
+        <v>0.00144</v>
       </c>
       <c r="M150" t="n">
         <v>0.00481</v>
@@ -12771,10 +12771,10 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1.123</v>
+        <v>1.1232</v>
       </c>
       <c r="G154" t="n">
-        <v>1.1087</v>
+        <v>1.10872833333333</v>
       </c>
       <c r="H154" t="n">
         <v>2.525</v>
@@ -12788,10 +12788,10 @@
         <v>0.475</v>
       </c>
       <c r="M154" t="n">
-        <v>1.743</v>
+        <v>1.7428</v>
       </c>
       <c r="N154" t="n">
-        <v>1.8119</v>
+        <v>1.81199</v>
       </c>
       <c r="O154" t="n">
         <v>1857900</v>
@@ -12848,10 +12848,10 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1.123</v>
+        <v>1.1232</v>
       </c>
       <c r="G155" t="n">
-        <v>1.1087</v>
+        <v>1.10872833333333</v>
       </c>
       <c r="H155" t="n">
         <v>2.525</v>
@@ -12865,10 +12865,10 @@
         <v>0.475</v>
       </c>
       <c r="M155" t="n">
-        <v>1.743</v>
+        <v>1.7428</v>
       </c>
       <c r="N155" t="n">
-        <v>1.8119</v>
+        <v>1.81199</v>
       </c>
       <c r="O155" t="n">
         <v>1857900</v>
@@ -13398,13 +13398,13 @@
         <v>1.825</v>
       </c>
       <c r="G162" t="n">
-        <v>1.91284684385158</v>
+        <v>1.90114525259675</v>
       </c>
       <c r="H162" t="n">
-        <v>8.23160806587682</v>
+        <v>9.75146667716052</v>
       </c>
       <c r="I162" t="n">
-        <v>4.74556</v>
+        <v>4.17027</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -13479,7 +13479,7 @@
         <v>0.015</v>
       </c>
       <c r="G163" t="n">
-        <v>0.015498919073213</v>
+        <v>0.015499929312008</v>
       </c>
       <c r="H163" t="n">
         <v>0.032</v>
@@ -13560,7 +13560,7 @@
         <v>0.015</v>
       </c>
       <c r="G164" t="n">
-        <v>0.015498919073213</v>
+        <v>0.015499929312008</v>
       </c>
       <c r="H164" t="n">
         <v>0.032</v>
@@ -14055,10 +14055,10 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0.00238</v>
+        <v>0.00249</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0046256689020557</v>
+        <v>0.0046979015773319</v>
       </c>
       <c r="H170" t="n">
         <v>0.043848895181678</v>
@@ -14069,10 +14069,10 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
-        <v>0.00211</v>
+        <v>0.00221</v>
       </c>
       <c r="M170" t="n">
-        <v>0.00717</v>
+        <v>0.00718</v>
       </c>
       <c r="N170" t="n">
         <v>0.00959</v>
@@ -14136,10 +14136,10 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0.00238</v>
+        <v>0.00249</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0046256689020557</v>
+        <v>0.0046979015773319</v>
       </c>
       <c r="H171" t="n">
         <v>0.043848895181678</v>
@@ -14150,10 +14150,10 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
-        <v>0.00211</v>
+        <v>0.00221</v>
       </c>
       <c r="M171" t="n">
-        <v>0.00717</v>
+        <v>0.00718</v>
       </c>
       <c r="N171" t="n">
         <v>0.00959</v>
@@ -14455,7 +14455,7 @@
         <v>1.0625</v>
       </c>
       <c r="G175" t="n">
-        <v>1.07783333333333</v>
+        <v>1.07784166666667</v>
       </c>
       <c r="H175" t="n">
         <v>2.525</v>
@@ -14472,7 +14472,7 @@
         <v>1.7025</v>
       </c>
       <c r="N175" t="n">
-        <v>1.7876</v>
+        <v>1.78781</v>
       </c>
       <c r="O175" t="n">
         <v>1857900</v>
@@ -14532,7 +14532,7 @@
         <v>1.0625</v>
       </c>
       <c r="G176" t="n">
-        <v>1.07783333333333</v>
+        <v>1.07784166666667</v>
       </c>
       <c r="H176" t="n">
         <v>2.525</v>
@@ -14549,7 +14549,7 @@
         <v>1.7025</v>
       </c>
       <c r="N176" t="n">
-        <v>1.7876</v>
+        <v>1.78781</v>
       </c>
       <c r="O176" t="n">
         <v>1857900</v>
@@ -15079,13 +15079,13 @@
         <v>1.9</v>
       </c>
       <c r="G183" t="n">
-        <v>2.17979560218035</v>
+        <v>2.21829496554844</v>
       </c>
       <c r="H183" t="n">
-        <v>8.23160806587682</v>
+        <v>9.75146667716052</v>
       </c>
       <c r="I183" t="n">
-        <v>5.68034</v>
+        <v>6.32733</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
@@ -15096,7 +15096,7 @@
         <v>3.5</v>
       </c>
       <c r="N183" t="n">
-        <v>5.28141</v>
+        <v>5.68653</v>
       </c>
       <c r="O183" t="n">
         <v>1857900</v>
@@ -15160,7 +15160,7 @@
         <v>0.016</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0161175448202166</v>
+        <v>0.0161185721817031</v>
       </c>
       <c r="H184" t="n">
         <v>0.032</v>
@@ -15241,7 +15241,7 @@
         <v>0.016</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0161175448202166</v>
+        <v>0.0161185721817031</v>
       </c>
       <c r="H185" t="n">
         <v>0.032</v>
@@ -15736,10 +15736,10 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0.00327</v>
+        <v>0.00342</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0090746043010129</v>
+        <v>0.0091478022153799</v>
       </c>
       <c r="H191" t="n">
         <v>0.186098040800722</v>
@@ -15750,10 +15750,10 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
-        <v>0.00261</v>
+        <v>0.00273</v>
       </c>
       <c r="M191" t="n">
-        <v>0.007979999999999999</v>
+        <v>0.00805</v>
       </c>
       <c r="N191" t="n">
         <v>0.0141</v>
@@ -15817,10 +15817,10 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0.00327</v>
+        <v>0.00342</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0090746043010129</v>
+        <v>0.0091478022153799</v>
       </c>
       <c r="H192" t="n">
         <v>0.186098040800722</v>
@@ -15831,10 +15831,10 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
-        <v>0.00261</v>
+        <v>0.00273</v>
       </c>
       <c r="M192" t="n">
-        <v>0.007979999999999999</v>
+        <v>0.00805</v>
       </c>
       <c r="N192" t="n">
         <v>0.0141</v>
@@ -16136,7 +16136,7 @@
         <v>0.995</v>
       </c>
       <c r="G196" t="n">
-        <v>1.04684745762712</v>
+        <v>1.04683898305085</v>
       </c>
       <c r="H196" t="n">
         <v>2.525</v>
@@ -16213,7 +16213,7 @@
         <v>0.995</v>
       </c>
       <c r="G197" t="n">
-        <v>1.04684745762712</v>
+        <v>1.04683898305085</v>
       </c>
       <c r="H197" t="n">
         <v>2.525</v>
@@ -16760,13 +16760,13 @@
         <v>2.15</v>
       </c>
       <c r="G204" t="n">
-        <v>2.54087763813412</v>
+        <v>2.61289685170363</v>
       </c>
       <c r="H204" t="n">
-        <v>8.23160806587682</v>
+        <v>9.75146667716052</v>
       </c>
       <c r="I204" t="n">
-        <v>5.77293</v>
+        <v>6.78537</v>
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
@@ -16774,10 +16774,10 @@
         <v>2.85</v>
       </c>
       <c r="M204" t="n">
-        <v>5.05363</v>
+        <v>4.37112</v>
       </c>
       <c r="N204" t="n">
-        <v>5.33709</v>
+        <v>5.97946</v>
       </c>
       <c r="O204" t="n">
         <v>1857900</v>
@@ -17417,10 +17417,10 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0.0043</v>
+        <v>0.0044</v>
       </c>
       <c r="G212" t="n">
-        <v>0.009747917683960799</v>
+        <v>0.0098068994074752</v>
       </c>
       <c r="H212" t="n">
         <v>0.186098040800722</v>
@@ -17431,10 +17431,10 @@
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
-        <v>0.00311</v>
+        <v>0.00318</v>
       </c>
       <c r="M212" t="n">
-        <v>0.00847</v>
+        <v>0.008710000000000001</v>
       </c>
       <c r="N212" t="n">
         <v>0.01565</v>
@@ -17498,10 +17498,10 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0.0043</v>
+        <v>0.0044</v>
       </c>
       <c r="G213" t="n">
-        <v>0.009747917683960799</v>
+        <v>0.0098068994074752</v>
       </c>
       <c r="H213" t="n">
         <v>0.186098040800722</v>
@@ -17512,10 +17512,10 @@
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
-        <v>0.00311</v>
+        <v>0.00318</v>
       </c>
       <c r="M213" t="n">
-        <v>0.00847</v>
+        <v>0.008710000000000001</v>
       </c>
       <c r="N213" t="n">
         <v>0.01565</v>
@@ -17817,7 +17817,7 @@
         <v>0.926</v>
       </c>
       <c r="G217" t="n">
-        <v>1.01054237288136</v>
+        <v>1.01052542372881</v>
       </c>
       <c r="H217" t="n">
         <v>2.13</v>
@@ -17894,7 +17894,7 @@
         <v>0.926</v>
       </c>
       <c r="G218" t="n">
-        <v>1.01054237288136</v>
+        <v>1.01052542372881</v>
       </c>
       <c r="H218" t="n">
         <v>2.13</v>
@@ -18441,13 +18441,13 @@
         <v>2.4</v>
       </c>
       <c r="G225" t="n">
-        <v>2.72328914566871</v>
+        <v>2.79923667997837</v>
       </c>
       <c r="H225" t="n">
-        <v>8.23160806587682</v>
+        <v>9.75146667716052</v>
       </c>
       <c r="I225" t="n">
-        <v>5.84342</v>
+        <v>6.83019</v>
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
@@ -18455,10 +18455,10 @@
         <v>3</v>
       </c>
       <c r="M225" t="n">
-        <v>5.08327</v>
+        <v>4.44175</v>
       </c>
       <c r="N225" t="n">
-        <v>5.35278</v>
+        <v>6.04858</v>
       </c>
       <c r="O225" t="n">
         <v>1857900</v>
@@ -19098,10 +19098,10 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0.00509</v>
+        <v>0.00524</v>
       </c>
       <c r="G233" t="n">
-        <v>0.0111270211373135</v>
+        <v>0.0111670948634745</v>
       </c>
       <c r="H233" t="n">
         <v>0.186098040800722</v>
@@ -19112,7 +19112,7 @@
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
-        <v>0.0047</v>
+        <v>0.00478</v>
       </c>
       <c r="M233" t="n">
         <v>0.01129</v>
@@ -19179,10 +19179,10 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>0.00509</v>
+        <v>0.00524</v>
       </c>
       <c r="G234" t="n">
-        <v>0.0111270211373135</v>
+        <v>0.0111670948634745</v>
       </c>
       <c r="H234" t="n">
         <v>0.186098040800722</v>
@@ -19193,7 +19193,7 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
-        <v>0.0047</v>
+        <v>0.00478</v>
       </c>
       <c r="M234" t="n">
         <v>0.01129</v>
@@ -19498,7 +19498,7 @@
         <v>1.022</v>
       </c>
       <c r="G238" t="n">
-        <v>1.0165</v>
+        <v>1.01648275862069</v>
       </c>
       <c r="H238" t="n">
         <v>2.128</v>
@@ -19575,7 +19575,7 @@
         <v>1.022</v>
       </c>
       <c r="G239" t="n">
-        <v>1.0165</v>
+        <v>1.01648275862069</v>
       </c>
       <c r="H239" t="n">
         <v>2.128</v>
@@ -19934,6 +19934,1687 @@
         </is>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.5198</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0.62265</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P244" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G245" t="n">
+        <v>17.4713739639645</v>
+      </c>
+      <c r="H245" t="n">
+        <v>140</v>
+      </c>
+      <c r="I245" t="n">
+        <v>54.75</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M245" t="n">
+        <v>31.245</v>
+      </c>
+      <c r="N245" t="n">
+        <v>46.81</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P245" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G246" t="n">
+        <v>3.02188494997712</v>
+      </c>
+      <c r="H246" t="n">
+        <v>9.75146667716052</v>
+      </c>
+      <c r="I246" t="n">
+        <v>6.87501</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M246" t="n">
+        <v>4.65927</v>
+      </c>
+      <c r="N246" t="n">
+        <v>6.19725</v>
+      </c>
+      <c r="O246" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P246" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.0159655172413793</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.0242</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.02286</v>
+      </c>
+      <c r="O247" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P247" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.0159655172413793</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0.0242</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0.02286</v>
+      </c>
+      <c r="O248" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P248" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>180</v>
+      </c>
+      <c r="G249" t="n">
+        <v>596.862068965517</v>
+      </c>
+      <c r="H249" t="n">
+        <v>3900</v>
+      </c>
+      <c r="I249" t="n">
+        <v>2820</v>
+      </c>
+      <c r="J249" t="n">
+        <v>25.8620689655172</v>
+      </c>
+      <c r="K249" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="L249" t="n">
+        <v>330</v>
+      </c>
+      <c r="M249" t="n">
+        <v>1164</v>
+      </c>
+      <c r="N249" t="n">
+        <v>2456.6</v>
+      </c>
+      <c r="O249" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P249" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>180</v>
+      </c>
+      <c r="G250" t="n">
+        <v>596.862068965517</v>
+      </c>
+      <c r="H250" t="n">
+        <v>3900</v>
+      </c>
+      <c r="I250" t="n">
+        <v>2820</v>
+      </c>
+      <c r="J250" t="n">
+        <v>25.8620689655172</v>
+      </c>
+      <c r="K250" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="L250" t="n">
+        <v>330</v>
+      </c>
+      <c r="M250" t="n">
+        <v>1164</v>
+      </c>
+      <c r="N250" t="n">
+        <v>2456.6</v>
+      </c>
+      <c r="O250" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P250" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>180</v>
+      </c>
+      <c r="G251" t="n">
+        <v>596.862068965517</v>
+      </c>
+      <c r="H251" t="n">
+        <v>3900</v>
+      </c>
+      <c r="I251" t="n">
+        <v>2820</v>
+      </c>
+      <c r="J251" t="n">
+        <v>25.8620689655172</v>
+      </c>
+      <c r="K251" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="L251" t="n">
+        <v>330</v>
+      </c>
+      <c r="M251" t="n">
+        <v>1164</v>
+      </c>
+      <c r="N251" t="n">
+        <v>2456.6</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P251" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>180</v>
+      </c>
+      <c r="G252" t="n">
+        <v>596.862068965517</v>
+      </c>
+      <c r="H252" t="n">
+        <v>3900</v>
+      </c>
+      <c r="I252" t="n">
+        <v>2820</v>
+      </c>
+      <c r="J252" t="n">
+        <v>25.8620689655172</v>
+      </c>
+      <c r="K252" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="L252" t="n">
+        <v>330</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1164</v>
+      </c>
+      <c r="N252" t="n">
+        <v>2456.6</v>
+      </c>
+      <c r="O252" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P252" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>111</v>
+      </c>
+      <c r="G253" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="H253" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="I253" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>111</v>
+      </c>
+      <c r="M253" t="n">
+        <v>126.625</v>
+      </c>
+      <c r="N253" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="O253" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P253" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>0.00499</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.0101936520251516</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.186098040800722</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.0262</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>0.00485</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0.009429999999999999</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.01863</v>
+      </c>
+      <c r="O254" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P254" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>0.00499</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.0101936520251516</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0.186098040800722</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.0262</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>0.00485</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0.009429999999999999</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0.01863</v>
+      </c>
+      <c r="O255" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P255" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T255" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="G256" t="n">
+        <v>1.04675862068966</v>
+      </c>
+      <c r="H256" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I256" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="M256" t="n">
+        <v>1.5864</v>
+      </c>
+      <c r="N256" t="n">
+        <v>1.7258</v>
+      </c>
+      <c r="O256" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P256" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T256" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="G257" t="n">
+        <v>1.04675862068966</v>
+      </c>
+      <c r="H257" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I257" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="M257" t="n">
+        <v>1.5864</v>
+      </c>
+      <c r="N257" t="n">
+        <v>1.7258</v>
+      </c>
+      <c r="O257" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P257" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="G258" t="n">
+        <v>6.0476</v>
+      </c>
+      <c r="H258" t="n">
+        <v>7.179</v>
+      </c>
+      <c r="I258" t="n">
+        <v>7.179</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="M258" t="n">
+        <v>6.83635</v>
+      </c>
+      <c r="N258" t="n">
+        <v>7.179</v>
+      </c>
+      <c r="O258" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P258" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1.06258620689655</v>
+      </c>
+      <c r="H259" t="n">
+        <v>2.146</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1.9914</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="M259" t="n">
+        <v>1.59496</v>
+      </c>
+      <c r="N259" t="n">
+        <v>1.74326</v>
+      </c>
+      <c r="O259" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P259" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G260" t="n">
+        <v>1.06258620689655</v>
+      </c>
+      <c r="H260" t="n">
+        <v>2.146</v>
+      </c>
+      <c r="I260" t="n">
+        <v>1.9914</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="M260" t="n">
+        <v>1.59496</v>
+      </c>
+      <c r="N260" t="n">
+        <v>1.74326</v>
+      </c>
+      <c r="O260" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P260" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="G261" t="n">
+        <v>1.18879310344828</v>
+      </c>
+      <c r="H261" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I261" t="n">
+        <v>2.016</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M261" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="N261" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="O261" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P261" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="G262" t="n">
+        <v>1.18879310344828</v>
+      </c>
+      <c r="H262" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I262" t="n">
+        <v>2.016</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M262" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="N262" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P262" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.0346379310344828</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0.1192</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0.03328</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0.04944</v>
+      </c>
+      <c r="O263" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P263" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at S.H.2 Napier</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.0346379310344828</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.1192</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0.03328</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0.04944</v>
+      </c>
+      <c r="O264" t="n">
+        <v>1857900</v>
+      </c>
+      <c r="P264" t="n">
+        <v>5539702</v>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/OruakeretakiatSH2Napier_e2168a7be4.xlsx
+++ b/state_results/Rivers/OruakeretakiatSH2Napier_e2168a7be4.xlsx
@@ -570,13 +570,13 @@
         <v>2.95</v>
       </c>
       <c r="G2" t="n">
-        <v>3.19866556778776</v>
+        <v>3.25465130637084</v>
       </c>
       <c r="H2" t="n">
-        <v>7.64137665442791</v>
+        <v>8.711248194442041</v>
       </c>
       <c r="I2" t="n">
-        <v>7.10303</v>
+        <v>6.83784</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>3.3</v>
       </c>
       <c r="M2" t="n">
-        <v>6.036</v>
+        <v>6.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.75546</v>
+        <v>6.72526</v>
       </c>
       <c r="O2" t="n">
         <v>1857900</v>
@@ -1939,24 +1939,24 @@
         <v>2.25</v>
       </c>
       <c r="G19" t="n">
-        <v>3.09784408210823</v>
+        <v>3.20029864544694</v>
       </c>
       <c r="H19" t="n">
-        <v>7.64137665442791</v>
+        <v>8.711248194442041</v>
       </c>
       <c r="I19" t="n">
-        <v>7.10303</v>
+        <v>6.82756</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>2.96874</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>6</v>
+        <v>6.036</v>
       </c>
       <c r="N19" t="n">
-        <v>6.54906</v>
+        <v>6.5312</v>
       </c>
       <c r="O19" t="n">
         <v>1857900</v>
@@ -3389,24 +3389,24 @@
         <v>2.135</v>
       </c>
       <c r="G37" t="n">
-        <v>2.94961947126937</v>
+        <v>3.02930635386614</v>
       </c>
       <c r="H37" t="n">
-        <v>7.64137665442791</v>
+        <v>8.711248194442041</v>
       </c>
       <c r="I37" t="n">
-        <v>6.78033</v>
+        <v>6.67829</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>3.08374</v>
+        <v>3.115</v>
       </c>
       <c r="M37" t="n">
-        <v>5.256</v>
+        <v>5.864</v>
       </c>
       <c r="N37" t="n">
-        <v>6.172</v>
+        <v>6.49213</v>
       </c>
       <c r="O37" t="n">
         <v>1857900</v>
@@ -4993,13 +4993,13 @@
         <v>1.94</v>
       </c>
       <c r="G57" t="n">
-        <v>2.54628613793603</v>
+        <v>2.62597302053281</v>
       </c>
       <c r="H57" t="n">
-        <v>7.64137665442791</v>
+        <v>8.711248194442041</v>
       </c>
       <c r="I57" t="n">
-        <v>6.48033</v>
+        <v>6.67637</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -5007,10 +5007,10 @@
         <v>2.45</v>
       </c>
       <c r="M57" t="n">
-        <v>3.824</v>
+        <v>4.1296</v>
       </c>
       <c r="N57" t="n">
-        <v>4.96114</v>
+        <v>5.47365</v>
       </c>
       <c r="O57" t="n">
         <v>1857900</v>
@@ -6674,13 +6674,13 @@
         <v>1.88</v>
       </c>
       <c r="G78" t="n">
-        <v>2.17078328210406</v>
+        <v>2.21297129485264</v>
       </c>
       <c r="H78" t="n">
-        <v>4.9</v>
+        <v>5.25046006197802</v>
       </c>
       <c r="I78" t="n">
-        <v>4.435</v>
+        <v>4.7975</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -6688,10 +6688,10 @@
         <v>3.03</v>
       </c>
       <c r="M78" t="n">
-        <v>3.383</v>
+        <v>3.4225</v>
       </c>
       <c r="N78" t="n">
-        <v>3.991</v>
+        <v>4.292</v>
       </c>
       <c r="O78" t="n">
         <v>1857900</v>
@@ -8355,13 +8355,13 @@
         <v>1.94</v>
       </c>
       <c r="G99" t="n">
-        <v>2.10328915504002</v>
+        <v>2.13752934170207</v>
       </c>
       <c r="H99" t="n">
-        <v>4.9</v>
+        <v>5.08917247701797</v>
       </c>
       <c r="I99" t="n">
-        <v>4.1615</v>
+        <v>4.413</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -8369,10 +8369,10 @@
         <v>2.59</v>
       </c>
       <c r="M99" t="n">
-        <v>3.3181</v>
+        <v>3.3686</v>
       </c>
       <c r="N99" t="n">
-        <v>3.7564</v>
+        <v>3.948</v>
       </c>
       <c r="O99" t="n">
         <v>1857900</v>
@@ -13398,13 +13398,13 @@
         <v>1.825</v>
       </c>
       <c r="G162" t="n">
-        <v>1.90114525259675</v>
+        <v>1.84661070082987</v>
       </c>
       <c r="H162" t="n">
-        <v>9.75146667716052</v>
+        <v>5.78991516814896</v>
       </c>
       <c r="I162" t="n">
-        <v>4.17027</v>
+        <v>4.50009</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -15079,13 +15079,13 @@
         <v>1.9</v>
       </c>
       <c r="G183" t="n">
-        <v>2.21829496554844</v>
+        <v>2.23003024078676</v>
       </c>
       <c r="H183" t="n">
-        <v>9.75146667716052</v>
+        <v>10.347716701658</v>
       </c>
       <c r="I183" t="n">
-        <v>6.32733</v>
+        <v>5.94063</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
@@ -15096,7 +15096,7 @@
         <v>3.5</v>
       </c>
       <c r="N183" t="n">
-        <v>5.68653</v>
+        <v>4.97561</v>
       </c>
       <c r="O183" t="n">
         <v>1857900</v>
@@ -16760,13 +16760,13 @@
         <v>2.15</v>
       </c>
       <c r="G204" t="n">
-        <v>2.61289685170363</v>
+        <v>2.60156567838948</v>
       </c>
       <c r="H204" t="n">
-        <v>9.75146667716052</v>
+        <v>10.347716701658</v>
       </c>
       <c r="I204" t="n">
-        <v>6.78537</v>
+        <v>6.54155</v>
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
@@ -16774,10 +16774,10 @@
         <v>2.85</v>
       </c>
       <c r="M204" t="n">
-        <v>4.37112</v>
+        <v>4.85607</v>
       </c>
       <c r="N204" t="n">
-        <v>5.97946</v>
+        <v>5.72323</v>
       </c>
       <c r="O204" t="n">
         <v>1857900</v>
@@ -18441,13 +18441,13 @@
         <v>2.4</v>
       </c>
       <c r="G225" t="n">
-        <v>2.79923667997837</v>
+        <v>2.78728744266527</v>
       </c>
       <c r="H225" t="n">
-        <v>9.75146667716052</v>
+        <v>10.347716701658</v>
       </c>
       <c r="I225" t="n">
-        <v>6.83019</v>
+        <v>6.66095</v>
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
@@ -18455,10 +18455,10 @@
         <v>3</v>
       </c>
       <c r="M225" t="n">
-        <v>4.44175</v>
+        <v>4.9711</v>
       </c>
       <c r="N225" t="n">
-        <v>6.04858</v>
+        <v>5.81732</v>
       </c>
       <c r="O225" t="n">
         <v>1857900</v>
@@ -20122,13 +20122,13 @@
         <v>2.5</v>
       </c>
       <c r="G246" t="n">
-        <v>3.02188494997712</v>
+        <v>3.00924633358827</v>
       </c>
       <c r="H246" t="n">
-        <v>9.75146667716052</v>
+        <v>10.347716701658</v>
       </c>
       <c r="I246" t="n">
-        <v>6.87501</v>
+        <v>6.78035</v>
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
@@ -20136,10 +20136,10 @@
         <v>3.15</v>
       </c>
       <c r="M246" t="n">
-        <v>4.65927</v>
+        <v>4.97475</v>
       </c>
       <c r="N246" t="n">
-        <v>6.19725</v>
+        <v>5.88309</v>
       </c>
       <c r="O246" t="n">
         <v>1857900</v>
